--- a/resource/SPEC Salmon ของน้องอ้วน V4.0.xlsx
+++ b/resource/SPEC Salmon ของน้องอ้วน V4.0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="232">
   <si>
     <t>Sheet</t>
   </si>
@@ -1272,10 +1272,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F120" sqref="F120"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1320,7 +1321,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>2</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>2</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>2</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>2</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>60</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>60</v>
       </c>
@@ -1713,7 +1714,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>60</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>60</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>60</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>60</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>60</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>60</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>60</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>60</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>60</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>60</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>60</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>60</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>60</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>60</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>60</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>60</v>
       </c>
@@ -2086,15 +2087,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="5" t="s">
+    <row r="68" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>13</v>
+      <c r="C68" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2667,7 +2671,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>111</v>
       </c>
@@ -2681,7 +2685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>111</v>
       </c>
@@ -2695,7 +2699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>111</v>
       </c>
@@ -2706,7 +2710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>111</v>
       </c>
@@ -2720,7 +2724,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>111</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>111</v>
       </c>
@@ -2745,7 +2749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>111</v>
       </c>
@@ -2756,7 +2760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>111</v>
       </c>
@@ -2767,7 +2771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>111</v>
       </c>
@@ -2778,7 +2782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>111</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>111</v>
       </c>
@@ -2803,7 +2807,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>111</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>111</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>111</v>
       </c>
@@ -2842,7 +2846,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>111</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>111</v>
       </c>
@@ -2867,7 +2871,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>111</v>
       </c>
@@ -2881,7 +2885,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>111</v>
       </c>
@@ -2895,7 +2899,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>111</v>
       </c>
@@ -2906,7 +2910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>111</v>
       </c>
@@ -2923,7 +2927,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>111</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>111</v>
       </c>
@@ -2954,7 +2958,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>111</v>
       </c>
@@ -2968,7 +2972,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>111</v>
       </c>
@@ -2982,7 +2986,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>111</v>
       </c>
@@ -2996,7 +3000,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>111</v>
       </c>
@@ -3010,7 +3014,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>111</v>
       </c>
@@ -3024,7 +3028,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>111</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>111</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>111</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>111</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>111</v>
       </c>
@@ -3082,7 +3086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>111</v>
       </c>
@@ -3096,7 +3100,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>111</v>
       </c>
@@ -3107,7 +3111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>111</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>111</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>111</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>111</v>
       </c>
@@ -3151,7 +3155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>111</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>111</v>
       </c>
@@ -3179,7 +3183,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>111</v>
       </c>
@@ -3190,7 +3194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>111</v>
       </c>
@@ -3201,7 +3205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>111</v>
       </c>
@@ -3215,7 +3219,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>111</v>
       </c>
@@ -3226,7 +3230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>111</v>
       </c>
@@ -3237,7 +3241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>111</v>
       </c>
@@ -3248,7 +3252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>111</v>
       </c>
@@ -3259,7 +3263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>111</v>
       </c>
@@ -3270,7 +3274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>111</v>
       </c>
@@ -3281,7 +3285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>111</v>
       </c>
@@ -3292,7 +3296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>111</v>
       </c>
@@ -3306,7 +3310,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>111</v>
       </c>
@@ -3320,7 +3324,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>111</v>
       </c>
@@ -3331,7 +3335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>111</v>
       </c>
@@ -3345,7 +3349,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>111</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>111</v>
       </c>
@@ -3373,7 +3377,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>111</v>
       </c>
@@ -3384,7 +3388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>111</v>
       </c>
@@ -3395,7 +3399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>111</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>111</v>
       </c>
@@ -3417,7 +3421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>111</v>
       </c>
@@ -3428,7 +3432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>111</v>
       </c>
@@ -3439,7 +3443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>111</v>
       </c>
@@ -3450,7 +3454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>111</v>
       </c>
@@ -3461,7 +3465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>111</v>
       </c>
@@ -3472,7 +3476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>111</v>
       </c>
@@ -3486,7 +3490,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>111</v>
       </c>
@@ -3500,7 +3504,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>111</v>
       </c>
@@ -3514,7 +3518,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>111</v>
       </c>
@@ -3528,7 +3532,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>111</v>
       </c>
@@ -3542,7 +3546,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>111</v>
       </c>
@@ -3559,7 +3563,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>111</v>
       </c>
@@ -3570,7 +3574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>111</v>
       </c>
@@ -3581,7 +3585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>111</v>
       </c>
@@ -3592,7 +3596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>111</v>
       </c>
@@ -3603,7 +3607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>111</v>
       </c>
@@ -3614,7 +3618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>111</v>
       </c>
@@ -3625,7 +3629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>111</v>
       </c>
@@ -3636,7 +3640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>111</v>
       </c>
@@ -3647,7 +3651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>111</v>
       </c>
@@ -3658,7 +3662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>111</v>
       </c>
@@ -3669,7 +3673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>111</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>111</v>
       </c>
@@ -3691,7 +3695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>111</v>
       </c>
@@ -3702,7 +3706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>111</v>
       </c>
@@ -3716,7 +3720,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>111</v>
       </c>
@@ -3730,7 +3734,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>111</v>
       </c>
@@ -3741,7 +3745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>111</v>
       </c>
@@ -3755,7 +3759,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>111</v>
       </c>
@@ -3769,7 +3773,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>111</v>
       </c>
@@ -3780,7 +3784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>111</v>
       </c>
@@ -3791,7 +3795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>111</v>
       </c>
@@ -3802,7 +3806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>111</v>
       </c>
@@ -3813,7 +3817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>111</v>
       </c>
@@ -3824,7 +3828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>111</v>
       </c>
@@ -3835,7 +3839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>221</v>
       </c>
@@ -3849,7 +3853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>221</v>
       </c>
@@ -3863,7 +3867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>221</v>
       </c>
@@ -3874,7 +3878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>221</v>
       </c>
@@ -3888,7 +3892,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="219" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>221</v>
       </c>
@@ -3902,7 +3906,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="220" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>221</v>
       </c>
@@ -3916,7 +3920,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="221" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>221</v>
       </c>
@@ -3927,7 +3931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>221</v>
       </c>
@@ -3938,7 +3942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>221</v>
       </c>
@@ -3949,7 +3953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>221</v>
       </c>
@@ -3960,7 +3964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>221</v>
       </c>
@@ -3974,7 +3978,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="226" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>221</v>
       </c>
@@ -3988,7 +3992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>221</v>
       </c>
@@ -4002,7 +4006,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="228" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>221</v>
       </c>
@@ -4013,7 +4017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>221</v>
       </c>
@@ -4024,7 +4028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>221</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
         <v>221</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="232" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
         <v>221</v>
       </c>
@@ -4063,7 +4067,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="233" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>221</v>
       </c>
@@ -4074,7 +4078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>221</v>
       </c>
@@ -4085,7 +4089,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="235" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>221</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="236" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>221</v>
       </c>
@@ -4107,7 +4111,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="237" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>221</v>
       </c>
@@ -4118,7 +4122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>221</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>221</v>
       </c>
@@ -4140,7 +4144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>221</v>
       </c>
@@ -4151,7 +4155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>221</v>
       </c>
@@ -4162,7 +4166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>221</v>
       </c>
@@ -4173,7 +4177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>221</v>
       </c>
@@ -4184,7 +4188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>221</v>
       </c>
@@ -4195,7 +4199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
         <v>221</v>
       </c>
@@ -4206,7 +4210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>221</v>
       </c>
@@ -4220,7 +4224,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>221</v>
       </c>
@@ -4234,7 +4238,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
         <v>221</v>
       </c>
@@ -4248,7 +4252,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
         <v>221</v>
       </c>
@@ -4259,7 +4263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
         <v>221</v>
       </c>
@@ -4270,7 +4274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>221</v>
       </c>
@@ -4281,7 +4285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
         <v>221</v>
       </c>
@@ -4292,7 +4296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>221</v>
       </c>
@@ -4303,7 +4307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>221</v>
       </c>
@@ -4314,7 +4318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>221</v>
       </c>
@@ -4325,7 +4329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
         <v>221</v>
       </c>
@@ -4336,7 +4340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
         <v>221</v>
       </c>
@@ -4347,7 +4351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
         <v>221</v>
       </c>
@@ -4358,7 +4362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>221</v>
       </c>
@@ -4369,7 +4373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
         <v>221</v>
       </c>
@@ -4380,7 +4384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>221</v>
       </c>
@@ -4391,7 +4395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>221</v>
       </c>
@@ -4403,7 +4407,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E262"/>
+  <autoFilter ref="A2:E262">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="OPERATION"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
